--- a/experiment_logs.xlsx
+++ b/experiment_logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruty\My Github Repositories\solar-power-prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AD52C9-6E12-4B02-BD90-7E7C65A1FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED01BA-BB8A-404F-A253-FAFFA3716AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="855" windowWidth="20730" windowHeight="11160" xr2:uid="{67BF7799-1600-4A61-80F0-D3F7D974C7EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67BF7799-1600-4A61-80F0-D3F7D974C7EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Low Data Quick Experiments:</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Predicted Duration</t>
   </si>
   <si>
-    <t>Time Series Batches Divided Per Day</t>
-  </si>
-  <si>
     <t>Batch Size</t>
   </si>
   <si>
@@ -64,18 +61,9 @@
     <t>Metric</t>
   </si>
   <si>
-    <t>Model Config</t>
-  </si>
-  <si>
     <t>Model Information</t>
   </si>
   <si>
-    <t>Model Training And Output</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
     <t>Training</t>
   </si>
   <si>
@@ -104,6 +92,18 @@
   </si>
   <si>
     <t>O - Dense</t>
+  </si>
+  <si>
+    <t>Final Loss</t>
+  </si>
+  <si>
+    <t>Final MAE</t>
+  </si>
+  <si>
+    <t>Model Evaluation</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <r>
@@ -149,8 +149,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> months. (Total 62 days randomly shuffled afterwards) with training and testing split as 60 + 2 days</t>
+      <t xml:space="preserve"> months. (Total 62 days randomly shuffled afterwards daywise) with training and testing split as 60 + 2 days</t>
     </r>
+  </si>
+  <si>
+    <t>(26760, 15)</t>
+  </si>
+  <si>
+    <t>(892, 15)</t>
+  </si>
+  <si>
+    <t>Test  (892, 20, 1)</t>
+  </si>
+  <si>
+    <t>Time Series Batches Divided Per Day (Minutes)</t>
+  </si>
+  <si>
+    <t>(Univariate) Training again should be fine till 60 epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train (26760, 20, 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Configuration</t>
   </si>
 </sst>
 </file>
@@ -359,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,6 +444,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,16 +786,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EED7444-D877-4A5E-B0F8-B46E41069CFA}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="14.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="4"/>
     <col min="5" max="5" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
@@ -755,15 +803,16 @@
     <col min="7" max="7" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="4"/>
-    <col min="10" max="10" width="17.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="4"/>
     <col min="12" max="12" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="4"/>
     <col min="14" max="14" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
+    <col min="15" max="15" width="37.6640625" style="29" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -773,7 +822,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
@@ -791,7 +840,7 @@
       <c r="M2" s="17"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -807,16 +856,16 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="19"/>
+      <c r="B4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="25"/>
       <c r="D4" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -825,16 +874,19 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -843,15 +895,16 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N5" s="19"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>2</v>
@@ -860,47 +913,48 @@
         <v>3</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="I6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>9</v>
-      </c>
       <c r="J6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>14</v>
-      </c>
       <c r="L6" s="20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="22">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="22">
         <v>15</v>
       </c>
       <c r="D7" s="1">
@@ -910,29 +964,44 @@
         <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K7" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -940,17 +1009,22 @@
       <c r="H8" s="2"/>
       <c r="I8" s="11"/>
       <c r="J8" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -958,14 +1032,15 @@
       <c r="H9" s="3"/>
       <c r="I9" s="7"/>
       <c r="J9" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -980,8 +1055,9 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -996,8 +1072,9 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1012,8 +1089,9 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1028,8 +1106,9 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1044,8 +1123,9 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1060,8 +1140,9 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1076,8 +1157,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1092,8 +1174,9 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1108,8 +1191,9 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1124,8 +1208,9 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1140,8 +1225,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1156,8 +1242,9 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1172,8 +1259,9 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1188,8 +1276,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1204,8 +1293,9 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1220,8 +1310,9 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="30"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1236,8 +1327,9 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1252,8 +1344,9 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1268,8 +1361,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1284,8 +1378,9 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="30"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1300,8 +1395,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1316,8 +1412,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1332,8 +1429,9 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="30"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1348,8 +1446,9 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="30"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1364,8 +1463,9 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="30"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1380,8 +1480,9 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="30"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1396,8 +1497,9 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="30"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1412,8 +1514,9 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="30"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1428,8 +1531,9 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="30"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1444,8 +1548,9 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="30"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1460,8 +1565,9 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="30"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1476,8 +1582,9 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="30"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1492,8 +1599,9 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="30"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1508,8 +1616,9 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="30"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1524,8 +1633,9 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="30"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1540,8 +1650,9 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="30"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1556,8 +1667,9 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="30"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1572,8 +1684,9 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="30"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1588,8 +1701,9 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="30"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1604,8 +1718,9 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="30"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1620,8 +1735,9 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="30"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1636,8 +1752,9 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="30"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1652,8 +1769,9 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="30"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1668,8 +1786,9 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="30"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1684,8 +1803,9 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="30"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1700,8 +1820,9 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="30"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1716,8 +1837,9 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56" s="30"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1732,8 +1854,9 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57" s="30"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1748,8 +1871,9 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58" s="30"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1764,8 +1888,9 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O59" s="30"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1780,8 +1905,9 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60" s="30"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1796,8 +1922,9 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O61" s="30"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1812,8 +1939,9 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O62" s="30"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1828,8 +1956,9 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O63" s="30"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1844,8 +1973,9 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O64" s="30"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1860,8 +1990,9 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O65" s="30"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1876,8 +2007,9 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="30"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1892,8 +2024,9 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="30"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1908,8 +2041,9 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="30"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1924,8 +2058,9 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="30"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1940,8 +2075,9 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="30"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1956,8 +2092,9 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71" s="30"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1972,8 +2109,9 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72" s="30"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1988,8 +2126,9 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O73" s="30"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2004,8 +2143,9 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O74" s="30"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2020,8 +2160,9 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="30"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2036,8 +2177,9 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O76" s="30"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2052,8 +2194,9 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O77" s="30"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2068,8 +2211,9 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O78" s="30"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2084,8 +2228,9 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O79" s="30"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2100,8 +2245,9 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O80" s="30"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2116,8 +2262,9 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O81" s="30"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2132,8 +2279,9 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O82" s="30"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2148,8 +2296,9 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O83" s="30"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2164,8 +2313,9 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O84" s="30"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2180,8 +2330,9 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O85" s="30"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2196,8 +2347,9 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="30"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2212,8 +2364,9 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O87" s="30"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2228,8 +2381,9 @@
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O88" s="30"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2244,8 +2398,9 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O89" s="30"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2260,8 +2415,9 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O90" s="30"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2276,8 +2432,9 @@
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O91" s="30"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2292,8 +2449,9 @@
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O92" s="30"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2308,8 +2466,9 @@
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O93" s="30"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2324,8 +2483,9 @@
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O94" s="30"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2340,8 +2500,9 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O95" s="30"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2356,8 +2517,9 @@
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O96" s="30"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2372,8 +2534,9 @@
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O97" s="30"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2388,8 +2551,9 @@
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O98" s="30"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2404,8 +2568,9 @@
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O99" s="30"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2420,8 +2585,9 @@
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O100" s="30"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2436,8 +2602,9 @@
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O101" s="30"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -2452,9 +2619,12 @@
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
+      <c r="O102" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="K7:K9"/>
@@ -2464,8 +2634,6 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:J5"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>

--- a/experiment_logs.xlsx
+++ b/experiment_logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruty\My Github Repositories\solar-power-prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BADED-671F-44A6-8500-5C34F8BEF536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC2D3F-3464-4420-B6F2-CB7EF34E5FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="855" windowWidth="20730" windowHeight="11160" xr2:uid="{67BF7799-1600-4A61-80F0-D3F7D974C7EC}"/>
   </bookViews>
@@ -863,7 +863,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K15"/>
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/experiment_logs.xlsx
+++ b/experiment_logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruty\My Github Repositories\solar-power-prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC2D3F-3464-4420-B6F2-CB7EF34E5FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442536F0-E86B-4F04-982E-B642E14E19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="855" windowWidth="20730" windowHeight="11160" xr2:uid="{67BF7799-1600-4A61-80F0-D3F7D974C7EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67BF7799-1600-4A61-80F0-D3F7D974C7EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Sr. No</t>
   </si>
@@ -82,15 +82,6 @@
     <t>mae</t>
   </si>
   <si>
-    <t>L2 - Dense 100 relu</t>
-  </si>
-  <si>
-    <t>L1 - LSTM 200 relu</t>
-  </si>
-  <si>
-    <t>O - Dense</t>
-  </si>
-  <si>
     <t>Final MAE</t>
   </si>
   <si>
@@ -103,30 +94,6 @@
     <t xml:space="preserve"> Configuration</t>
   </si>
   <si>
-    <t>Train (24960, 35, 7)</t>
-  </si>
-  <si>
-    <t>(24960, 30)</t>
-  </si>
-  <si>
-    <t>Test (832, 35, 7)</t>
-  </si>
-  <si>
-    <t>(832, 30)</t>
-  </si>
-  <si>
-    <t>Train (137280, 35, 7)</t>
-  </si>
-  <si>
-    <t>Test (14976, 35, 7)</t>
-  </si>
-  <si>
-    <t>(137280, 30)</t>
-  </si>
-  <si>
-    <t>(14976, 30)</t>
-  </si>
-  <si>
     <t>Experiments:</t>
   </si>
   <si>
@@ -151,35 +118,23 @@
     <t>EOD Model Evaluation [30, 60, 90, 120]</t>
   </si>
   <si>
-    <t>Model - LSTM with 2 layers</t>
-  </si>
-  <si>
-    <t>Model - LSTM with 1 layer</t>
-  </si>
-  <si>
-    <t>L1 - LSTM 200 sigmoid</t>
-  </si>
-  <si>
-    <t>L2 - Dense 100 sigmoid</t>
-  </si>
-  <si>
-    <t>[9.48, NA, NA, NA]</t>
-  </si>
-  <si>
-    <t>[4.67, NA, NA, NA]</t>
-  </si>
-  <si>
     <t>[10.22, NA, NA, NA]</t>
   </si>
   <si>
     <t>[5.82, NA, NA, NA]</t>
+  </si>
+  <si>
+    <t>LSTM_2_V1 - LSTM with 2 layers</t>
+  </si>
+  <si>
+    <t>1 (ex.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +167,13 @@
       <b/>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -435,18 +397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,18 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -489,24 +427,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,16 +466,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,6 +492,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EED7444-D877-4A5E-B0F8-B46E41069CFA}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,120 +873,120 @@
     <col min="8" max="8" width="10.5546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="21" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="11" style="13" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="13" customWidth="1"/>
     <col min="13" max="13" width="37.6640625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="A1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
+      <c r="A2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>20</v>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>9</v>
@@ -999,364 +994,272 @@
       <c r="L6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="43">
+        <v>35</v>
+      </c>
+      <c r="C7" s="43">
+        <v>30</v>
+      </c>
+      <c r="D7" s="42">
+        <v>10</v>
+      </c>
+      <c r="E7" s="42">
+        <v>180</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>1</v>
       </c>
-      <c r="B7" s="12">
-        <v>35</v>
-      </c>
-      <c r="C7" s="13">
-        <v>30</v>
-      </c>
-      <c r="D7" s="23">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>180</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18">
-        <v>35</v>
-      </c>
-      <c r="C10" s="13">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>180</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5">
-        <v>180</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="A13" s="21">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>8</v>
-      </c>
-      <c r="B16" s="12">
-        <v>35</v>
-      </c>
-      <c r="C16" s="13">
-        <v>30</v>
-      </c>
-      <c r="D16" s="32">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>180</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="A16" s="21">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -1369,8 +1272,8 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1384,8 +1287,8 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1399,8 +1302,8 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1414,8 +1317,8 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1429,8 +1332,8 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1444,8 +1347,8 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1459,8 +1362,8 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1474,8 +1377,8 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1489,8 +1392,8 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1504,8 +1407,8 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1519,8 +1422,8 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1534,8 +1437,8 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -1549,8 +1452,8 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -1564,8 +1467,8 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -1579,8 +1482,8 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -1594,8 +1497,8 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -1609,8 +1512,8 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -1624,8 +1527,8 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -1639,8 +1542,8 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -1654,8 +1557,8 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -1669,8 +1572,8 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -1684,8 +1587,8 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -1699,8 +1602,8 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -1714,8 +1617,8 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -1729,8 +1632,8 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -1744,8 +1647,8 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -1759,8 +1662,8 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -1774,8 +1677,8 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -1789,8 +1692,8 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -1804,8 +1707,8 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -1819,8 +1722,8 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -1834,8 +1737,8 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -1849,8 +1752,8 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -1864,8 +1767,8 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -1879,8 +1782,8 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -1894,8 +1797,8 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -1909,8 +1812,8 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -1924,8 +1827,8 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -1939,8 +1842,8 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -1954,8 +1857,8 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -1969,8 +1872,8 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -1984,8 +1887,8 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -1999,8 +1902,8 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -2014,8 +1917,8 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -2029,8 +1932,8 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -2044,8 +1947,8 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -2059,8 +1962,8 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -2074,8 +1977,8 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -2089,8 +1992,8 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -2104,8 +2007,8 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -2119,8 +2022,8 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -2134,8 +2037,8 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -2149,8 +2052,8 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -2164,8 +2067,8 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -2179,8 +2082,8 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -2194,8 +2097,8 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -2209,8 +2112,8 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -2224,8 +2127,8 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
       <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -2239,8 +2142,8 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -2254,8 +2157,8 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -2269,8 +2172,8 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -2284,8 +2187,8 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -2299,8 +2202,8 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
       <c r="M84" s="4"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -2314,8 +2217,8 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
       <c r="M85" s="4"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -2329,8 +2232,8 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
       <c r="M86" s="4"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -2344,8 +2247,8 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -2359,8 +2262,8 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -2374,8 +2277,8 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -2389,17 +2292,19 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
       <c r="M90" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K9"/>
     <mergeCell ref="L16:L18"/>
     <mergeCell ref="M16:M18"/>
     <mergeCell ref="A19:A21"/>
@@ -2416,11 +2321,7 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="K16:K18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:A5"/>
@@ -2428,14 +2329,7 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:J5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="M10:M12"/>
     <mergeCell ref="A10:A12"/>
@@ -2448,6 +2342,11 @@
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L10:L12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="M13:M15"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="D13:D15"/>
@@ -2458,7 +2357,11 @@
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
